--- a/result/test_070_data_copy_speed.xlsx
+++ b/result/test_070_data_copy_speed.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,52 +434,57 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2K</t>
+          <t>3K</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>3K</t>
+          <t>4K</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>4K</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>7K</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>7K</t>
+          <t>8K</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>8K</t>
+          <t>9K</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>9K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>11K</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>12K</t>
         </is>
       </c>
     </row>
@@ -495,34 +500,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6885.078896070586</v>
+        <v>1852.490525573237</v>
       </c>
       <c r="D2" t="n">
-        <v>6581.946076364029</v>
+        <v>1561.303038904115</v>
       </c>
       <c r="E2" t="n">
-        <v>6774.233005527241</v>
+        <v>1853.615201227754</v>
       </c>
       <c r="F2" t="n">
-        <v>6828.698521237653</v>
+        <v>1890.505989210834</v>
       </c>
       <c r="G2" t="n">
-        <v>6838.219518000789</v>
+        <v>1878.48844418782</v>
       </c>
       <c r="H2" t="n">
-        <v>6877.857862713816</v>
+        <v>1888.959074531735</v>
       </c>
       <c r="I2" t="n">
-        <v>6882.041364230166</v>
+        <v>1886.644483014184</v>
       </c>
       <c r="J2" t="n">
-        <v>6862.450042740847</v>
+        <v>1890.872673219963</v>
       </c>
       <c r="K2" t="n">
-        <v>6909.265925654013</v>
+        <v>1889.004484821954</v>
       </c>
       <c r="L2" t="n">
-        <v>6877.23572870009</v>
+        <v>1891.848167779323</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1893.663698834684</v>
       </c>
     </row>
     <row r="3">
@@ -537,34 +545,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7464.834705228031</v>
+        <v>1518.078542405774</v>
       </c>
       <c r="D3" t="n">
-        <v>8751.579771002322</v>
+        <v>1490.889167438878</v>
       </c>
       <c r="E3" t="n">
-        <v>1845.447111198022</v>
+        <v>1514.90868293718</v>
       </c>
       <c r="F3" t="n">
-        <v>1842.793894183094</v>
+        <v>1519.123304103617</v>
       </c>
       <c r="G3" t="n">
-        <v>1844.152286743577</v>
+        <v>1515.511366715847</v>
       </c>
       <c r="H3" t="n">
-        <v>1839.198642845202</v>
+        <v>1518.812158388612</v>
       </c>
       <c r="I3" t="n">
-        <v>1840.025972616169</v>
+        <v>1521.287057612908</v>
       </c>
       <c r="J3" t="n">
-        <v>1839.057990928387</v>
+        <v>1523.630200213842</v>
       </c>
       <c r="K3" t="n">
-        <v>1838.244111030416</v>
+        <v>1524.18281545747</v>
       </c>
       <c r="L3" t="n">
-        <v>1839.431242946466</v>
+        <v>1525.592939345179</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1526.847731844202</v>
       </c>
     </row>
     <row r="4">
@@ -579,34 +590,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9182.931581828134</v>
+        <v>830518.8715401604</v>
       </c>
       <c r="D4" t="n">
-        <v>614831.5529088411</v>
+        <v>233828.7944250871</v>
       </c>
       <c r="E4" t="n">
-        <v>1355430.377019749</v>
+        <v>665679.9900805951</v>
       </c>
       <c r="F4" t="n">
-        <v>910413.6204849924</v>
+        <v>563750.5376344086</v>
       </c>
       <c r="G4" t="n">
-        <v>355479.6169166879</v>
+        <v>483958.1538461539</v>
       </c>
       <c r="H4" t="n">
-        <v>559992.3749478466</v>
+        <v>585800.8223180247</v>
       </c>
       <c r="I4" t="n">
-        <v>625610.5810281192</v>
+        <v>843175.4870627037</v>
       </c>
       <c r="J4" t="n">
-        <v>857518.5273329873</v>
+        <v>1012105.828554405</v>
       </c>
       <c r="K4" t="n">
-        <v>1026051.943070709</v>
+        <v>1270616.176916086</v>
       </c>
       <c r="L4" t="n">
-        <v>1293789.550800077</v>
+        <v>1507252.578980584</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1139020.345583555</v>
       </c>
     </row>
   </sheetData>

--- a/result/test_070_data_copy_speed.xlsx
+++ b/result/test_070_data_copy_speed.xlsx
@@ -500,37 +500,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1852.490525573237</v>
+        <v>7052.22790493065</v>
       </c>
       <c r="D2" t="n">
-        <v>1561.303038904115</v>
+        <v>7725.808723548772</v>
       </c>
       <c r="E2" t="n">
-        <v>1853.615201227754</v>
+        <v>7813.435383579836</v>
       </c>
       <c r="F2" t="n">
-        <v>1890.505989210834</v>
+        <v>7367.864106662919</v>
       </c>
       <c r="G2" t="n">
-        <v>1878.48844418782</v>
+        <v>6915.201799844574</v>
       </c>
       <c r="H2" t="n">
-        <v>1888.959074531735</v>
+        <v>6890.520872928496</v>
       </c>
       <c r="I2" t="n">
-        <v>1886.644483014184</v>
+        <v>6906.901013143152</v>
       </c>
       <c r="J2" t="n">
-        <v>1890.872673219963</v>
+        <v>6905.167990095655</v>
       </c>
       <c r="K2" t="n">
-        <v>1889.004484821954</v>
+        <v>6917.673651391588</v>
       </c>
       <c r="L2" t="n">
-        <v>1891.848167779323</v>
+        <v>6921.067199066119</v>
       </c>
       <c r="M2" t="n">
-        <v>1893.663698834684</v>
+        <v>6158.638309045388</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +545,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1518.078542405774</v>
+        <v>1841.940265582213</v>
       </c>
       <c r="D3" t="n">
-        <v>1490.889167438878</v>
+        <v>1837.100811849332</v>
       </c>
       <c r="E3" t="n">
-        <v>1514.90868293718</v>
+        <v>1841.465898621621</v>
       </c>
       <c r="F3" t="n">
-        <v>1519.123304103617</v>
+        <v>1840.626627820587</v>
       </c>
       <c r="G3" t="n">
-        <v>1515.511366715847</v>
+        <v>1841.232228008275</v>
       </c>
       <c r="H3" t="n">
-        <v>1518.812158388612</v>
+        <v>1841.486909972094</v>
       </c>
       <c r="I3" t="n">
-        <v>1521.287057612908</v>
+        <v>1840.362799758604</v>
       </c>
       <c r="J3" t="n">
-        <v>1523.630200213842</v>
+        <v>1842.61224997845</v>
       </c>
       <c r="K3" t="n">
-        <v>1524.18281545747</v>
+        <v>1843.586546672635</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.592939345179</v>
+        <v>1844.614004888805</v>
       </c>
       <c r="M3" t="n">
-        <v>1526.847731844202</v>
+        <v>1846.31457825173</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>830518.8715401604</v>
+        <v>1622648.353130539</v>
       </c>
       <c r="D4" t="n">
-        <v>233828.7944250871</v>
+        <v>295995.9696152903</v>
       </c>
       <c r="E4" t="n">
-        <v>665679.9900805951</v>
+        <v>1415425.552333246</v>
       </c>
       <c r="F4" t="n">
-        <v>563750.5376344086</v>
+        <v>1148495.071193866</v>
       </c>
       <c r="G4" t="n">
-        <v>483958.1538461539</v>
+        <v>1021703.080436438</v>
       </c>
       <c r="H4" t="n">
-        <v>585800.8223180247</v>
+        <v>1135552.985703432</v>
       </c>
       <c r="I4" t="n">
-        <v>843175.4870627037</v>
+        <v>1664780.532578782</v>
       </c>
       <c r="J4" t="n">
-        <v>1012105.828554405</v>
+        <v>2014235.737206803</v>
       </c>
       <c r="K4" t="n">
-        <v>1270616.176916086</v>
+        <v>2458560.375146542</v>
       </c>
       <c r="L4" t="n">
-        <v>1507252.578980584</v>
+        <v>2921766.171560161</v>
       </c>
       <c r="M4" t="n">
-        <v>1139020.345583555</v>
+        <v>2149968.055530835</v>
       </c>
     </row>
   </sheetData>
